--- a/cbrunner/Parameters/Parameters_WildfireStatsMod.xlsx
+++ b/cbrunner/Parameters/Parameters_WildfireStatsMod.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935B043B-599E-4F8A-8C1A-3A622A37A7AC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25AF5AB-07B0-48F0-A243-9AE87EE76EDB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10812" yWindow="168" windowWidth="11508" windowHeight="12636" xr2:uid="{9AFF771F-04B1-40A8-9BAA-71BEFF0291C3}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{9AFF771F-04B1-40A8-9BAA-71BEFF0291C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>Name</t>
   </si>
@@ -102,21 +102,6 @@
     <t>p_High_pi</t>
   </si>
   <si>
-    <t>Annual probability of unburned rating within burned area (pre-industrial era)</t>
-  </si>
-  <si>
-    <t>Annual probability of low rating within burned area (pre-industrial era)</t>
-  </si>
-  <si>
-    <t>Annual probability of medium rating within burned area (pre-industrial era)</t>
-  </si>
-  <si>
-    <t>Annual probability of high rating within burned area (pre-industrial era)</t>
-  </si>
-  <si>
-    <t>Exclude simulations during modern era</t>
-  </si>
-  <si>
     <t>On</t>
   </si>
   <si>
@@ -124,6 +109,42 @@
   </si>
   <si>
     <t>Scenario ID</t>
+  </si>
+  <si>
+    <t>p_Unburned_fut</t>
+  </si>
+  <si>
+    <t>p_Low_fut</t>
+  </si>
+  <si>
+    <t>p_Medium_fut</t>
+  </si>
+  <si>
+    <t>p_High_fut</t>
+  </si>
+  <si>
+    <t>Annual probability of low rating within burned area (future period)</t>
+  </si>
+  <si>
+    <t>Annual probability of medium rating within burned area (future period)</t>
+  </si>
+  <si>
+    <t>Annual probability of unburned rating within burned area (pre-industrial period)</t>
+  </si>
+  <si>
+    <t>Annual probability of low rating within burned area (pre-industrial period)</t>
+  </si>
+  <si>
+    <t>Annual probability of medium rating within burned area (pre-industrial period)</t>
+  </si>
+  <si>
+    <t>Annual probability of high rating within burned area (pre-industrial period)</t>
+  </si>
+  <si>
+    <t>Annual probability of unburned rating within burned area (future period)</t>
+  </si>
+  <si>
+    <t>Exclude simulations during modern period</t>
   </si>
 </sst>
 </file>
@@ -485,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53EAA495-FB57-4EFF-A14A-90463467CC93}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="A9:B9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -575,7 +596,7 @@
         <v>0.25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -583,10 +604,10 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>0.45</v>
+        <v>0.34</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -594,10 +615,10 @@
         <v>21</v>
       </c>
       <c r="B8">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -605,90 +626,134 @@
         <v>22</v>
       </c>
       <c r="B9">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>0.25</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B11">
-        <v>50</v>
+        <v>0.18</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B12">
-        <v>90</v>
+        <v>0.48</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B13">
-        <v>100</v>
+        <v>0.09</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>90</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>100</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cbrunner/Parameters/Parameters_WildfireStatsMod.xlsx
+++ b/cbrunner/Parameters/Parameters_WildfireStatsMod.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25AF5AB-07B0-48F0-A243-9AE87EE76EDB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218409CD-001E-41C3-B2B6-73C6EF273826}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{9AFF771F-04B1-40A8-9BAA-71BEFF0291C3}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>Name</t>
   </si>
@@ -145,6 +145,12 @@
   </si>
   <si>
     <t>Exclude simulations during modern period</t>
+  </si>
+  <si>
+    <t>Exclude simulations during historical period</t>
+  </si>
+  <si>
+    <t>Off</t>
   </si>
 </sst>
 </file>
@@ -506,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53EAA495-FB57-4EFF-A14A-90463467CC93}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -755,6 +761,14 @@
       </c>
       <c r="D19" s="2"/>
     </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/cbrunner/Parameters/Parameters_WildfireStatsMod.xlsx
+++ b/cbrunner/Parameters/Parameters_WildfireStatsMod.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218409CD-001E-41C3-B2B6-73C6EF273826}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDEF21B3-C0F6-4FD0-B55E-5595C6AC211C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{9AFF771F-04B1-40A8-9BAA-71BEFF0291C3}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="14616" xr2:uid="{9AFF771F-04B1-40A8-9BAA-71BEFF0291C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,121 +36,121 @@
     <t>Name</t>
   </si>
   <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>mort_Unburned</t>
+  </si>
+  <si>
+    <t>mort_Low</t>
+  </si>
+  <si>
+    <t>mort_Medium</t>
+  </si>
+  <si>
+    <t>mort_High</t>
+  </si>
+  <si>
+    <t>fcexplore.disturbance.wildfire_burn_severity_distribution.py</t>
+  </si>
+  <si>
+    <t>Percent mortality</t>
+  </si>
+  <si>
+    <t>Annual probability of unburned rating within burned area</t>
+  </si>
+  <si>
+    <t>Guess work</t>
+  </si>
+  <si>
+    <t>Annual probability of low rating within burned area</t>
+  </si>
+  <si>
+    <t>Annual probability of medium rating within burned area</t>
+  </si>
+  <si>
+    <t>Annual probability of high rating within burned area</t>
+  </si>
+  <si>
+    <t>p_Unburned_obs</t>
+  </si>
+  <si>
+    <t>p_Low_obs</t>
+  </si>
+  <si>
+    <t>p_Medium_obs</t>
+  </si>
+  <si>
+    <t>p_High_obs</t>
+  </si>
+  <si>
+    <t>p_Unburned_pi</t>
+  </si>
+  <si>
+    <t>p_Low_pi</t>
+  </si>
+  <si>
+    <t>p_Medium_pi</t>
+  </si>
+  <si>
+    <t>p_High_pi</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Which of the predefined scenarios do you want to use?</t>
+  </si>
+  <si>
+    <t>Scenario ID</t>
+  </si>
+  <si>
+    <t>p_Unburned_fut</t>
+  </si>
+  <si>
+    <t>p_Low_fut</t>
+  </si>
+  <si>
+    <t>p_Medium_fut</t>
+  </si>
+  <si>
+    <t>p_High_fut</t>
+  </si>
+  <si>
+    <t>Annual probability of low rating within burned area (future period)</t>
+  </si>
+  <si>
+    <t>Annual probability of medium rating within burned area (future period)</t>
+  </si>
+  <si>
+    <t>Annual probability of unburned rating within burned area (pre-industrial period)</t>
+  </si>
+  <si>
+    <t>Annual probability of low rating within burned area (pre-industrial period)</t>
+  </si>
+  <si>
+    <t>Annual probability of medium rating within burned area (pre-industrial period)</t>
+  </si>
+  <si>
+    <t>Annual probability of high rating within burned area (pre-industrial period)</t>
+  </si>
+  <si>
+    <t>Annual probability of unburned rating within burned area (future period)</t>
+  </si>
+  <si>
+    <t>Exclude simulations during modern period</t>
+  </si>
+  <si>
+    <t>Exclude simulations during historical period</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
     <t>Value</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>mort_Unburned</t>
-  </si>
-  <si>
-    <t>mort_Low</t>
-  </si>
-  <si>
-    <t>mort_Medium</t>
-  </si>
-  <si>
-    <t>mort_High</t>
-  </si>
-  <si>
-    <t>fcexplore.disturbance.wildfire_burn_severity_distribution.py</t>
-  </si>
-  <si>
-    <t>Percent mortality</t>
-  </si>
-  <si>
-    <t>Annual probability of unburned rating within burned area</t>
-  </si>
-  <si>
-    <t>Guess work</t>
-  </si>
-  <si>
-    <t>Annual probability of low rating within burned area</t>
-  </si>
-  <si>
-    <t>Annual probability of medium rating within burned area</t>
-  </si>
-  <si>
-    <t>Annual probability of high rating within burned area</t>
-  </si>
-  <si>
-    <t>p_Unburned_obs</t>
-  </si>
-  <si>
-    <t>p_Low_obs</t>
-  </si>
-  <si>
-    <t>p_Medium_obs</t>
-  </si>
-  <si>
-    <t>p_High_obs</t>
-  </si>
-  <si>
-    <t>p_Unburned_pi</t>
-  </si>
-  <si>
-    <t>p_Low_pi</t>
-  </si>
-  <si>
-    <t>p_Medium_pi</t>
-  </si>
-  <si>
-    <t>p_High_pi</t>
-  </si>
-  <si>
-    <t>On</t>
-  </si>
-  <si>
-    <t>Which of the predefined scenarios do you want to use?</t>
-  </si>
-  <si>
-    <t>Scenario ID</t>
-  </si>
-  <si>
-    <t>p_Unburned_fut</t>
-  </si>
-  <si>
-    <t>p_Low_fut</t>
-  </si>
-  <si>
-    <t>p_Medium_fut</t>
-  </si>
-  <si>
-    <t>p_High_fut</t>
-  </si>
-  <si>
-    <t>Annual probability of low rating within burned area (future period)</t>
-  </si>
-  <si>
-    <t>Annual probability of medium rating within burned area (future period)</t>
-  </si>
-  <si>
-    <t>Annual probability of unburned rating within burned area (pre-industrial period)</t>
-  </si>
-  <si>
-    <t>Annual probability of low rating within burned area (pre-industrial period)</t>
-  </si>
-  <si>
-    <t>Annual probability of medium rating within burned area (pre-industrial period)</t>
-  </si>
-  <si>
-    <t>Annual probability of high rating within burned area (pre-industrial period)</t>
-  </si>
-  <si>
-    <t>Annual probability of unburned rating within burned area (future period)</t>
-  </si>
-  <si>
-    <t>Exclude simulations during modern period</t>
-  </si>
-  <si>
-    <t>Exclude simulations during historical period</t>
-  </si>
-  <si>
-    <t>Off</t>
   </si>
 </sst>
 </file>
@@ -216,9 +216,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -256,7 +256,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -362,7 +362,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -504,7 +504,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -515,13 +515,13 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.21875" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="53" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -529,244 +529,244 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>0.25</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>0.26</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>0.41</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>0.08</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>0.25</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>0.34</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>0.35</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>0.06</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10">
         <v>0.25</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11">
         <v>0.18</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12">
         <v>0.48</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13">
         <v>0.09</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14">
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15">
         <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16">
         <v>90</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17">
         <v>100</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
         <v>38</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
